--- a/Documentação/UserStories/user-stories.xlsx
+++ b/Documentação/UserStories/user-stories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Digital Solutions\Desktop\ShadowTech\Documentação\UserStories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C9483E-DC9C-4701-A517-1612963C3E15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3515E738-C875-4FB1-8147-FDA0D2790B9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="601" xr2:uid="{F0F20B02-A09F-4FB0-A8DF-B5AA3D8F1155}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="601" xr2:uid="{F0F20B02-A09F-4FB0-A8DF-B5AA3D8F1155}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog Site ShadowTech" sheetId="1" r:id="rId1"/>
@@ -662,8 +662,8 @@
   <dimension ref="B2:E138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
